--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,20 +477,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
@@ -493,294 +500,337 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,11 +922,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -878,14 +940,17 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,15 +1042,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
@@ -983,14 +1060,17 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,11 +1082,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1018,14 +1100,17 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -823,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -510,8 +510,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -550,8 +550,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -590,8 +590,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -630,8 +630,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -670,8 +670,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -710,8 +710,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -750,8 +750,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -790,8 +790,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -830,8 +830,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -870,8 +870,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -910,8 +910,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -950,8 +950,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -990,8 +990,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1030,8 +1030,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1070,8 +1070,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1110,8 +1110,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,8 +510,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,8 +550,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -590,8 +590,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,8 +630,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -670,8 +670,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -710,8 +710,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2023-10-15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -750,8 +750,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -790,8 +790,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -830,8 +830,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -870,8 +870,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2023-11-12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -910,8 +910,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -950,8 +950,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,8 +990,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1030,8 +1030,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1070,8 +1070,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2023-09-03</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2023-09-10</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,439 +438,383 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Week_Start_Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MyForecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast_XGB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J2" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-09-10</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-09-17</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.03</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J4" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.03</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J6" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J7" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-10-15</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-10-29</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>B083NMK4BB</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
-      </c>
       <c r="J10" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>1</v>
       </c>
@@ -863,39 +822,33 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>1</v>
       </c>
@@ -903,39 +856,33 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-11-19</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>1</v>
       </c>
@@ -943,35 +890,31 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-11-26</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -980,42 +923,36 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-12-03</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>1</v>
       </c>
@@ -1023,39 +960,33 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-12-10</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>1</v>
       </c>
@@ -1063,254 +994,45 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-12-17</t>
-        </is>
-      </c>
+      <c r="A17" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>B083NMK4BB</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>B660M DS3H AX DDR4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Historical Range</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-12-25 to 2024-12-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Min Sales</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Max Sales</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mean Sales</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Median Sales</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Std Dev Sales</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total Historical Sales</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>117 units</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Total Forecast (16 Weeks)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total Forecast (8 Weeks)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total Forecast (4 Weeks)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Max Forecast</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Max Forecast Week</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Min Forecast</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Min Forecast Week</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-09-10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B083NMK4BB.xlsx
+++ b/Sufficient data/forecast_summary_B083NMK4BB.xlsx
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-10-15</t>
         </is>
       </c>
     </row>
